--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chavezde\Documents\Liberación de Clusters\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12758701-117D-4997-874E-B5F2C005C958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9BB27-4B9A-418B-B175-D50D277FA195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A91B00AD-A52E-4E48-A7BB-00E45CC9DC75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="130">
   <si>
     <t>MIRAFLORES</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>G02-03_T13V1D8NP11</t>
+  </si>
+  <si>
+    <t>GENGAR</t>
+  </si>
+  <si>
+    <t>HAUNTER</t>
   </si>
 </sst>
 </file>
@@ -857,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829815C3-3201-42A3-92D1-E676D7D86834}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:J181"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5573,6 +5579,70 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2">
+        <v>5</v>
+      </c>
+      <c r="F162" s="2">
+        <v>2</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H162" s="3">
+        <v>16</v>
+      </c>
+      <c r="I162" s="3">
+        <v>-2.1849403788864494</v>
+      </c>
+      <c r="J162" s="3">
+        <v>-79.969843856530758</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2">
+        <v>5</v>
+      </c>
+      <c r="F163" s="2">
+        <v>2</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H163" s="3">
+        <v>16</v>
+      </c>
+      <c r="I163" s="3">
+        <v>-2.1849403788864494</v>
+      </c>
+      <c r="J163" s="3">
+        <v>-79.969843856530758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
